--- a/CryoGrid/CryoGridCommunity_results/results_MON1.xlsx
+++ b/CryoGrid/CryoGridCommunity_results/results_MON1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,17 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310314EB-6359-CE42-ADB9-7C83E5241BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="26" uniqueCount="13">
   <si>
     <t>R2</t>
   </si>
@@ -64,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -79,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,12 +87,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,7 +113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -262,7 +264,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -286,9 +288,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -312,7 +314,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -347,7 +349,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -365,7 +367,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -390,7 +392,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -426,107 +428,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="5.5" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" customWidth="1"/>
-    <col min="13" max="13" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="5.85546875" customWidth="true"/>
+    <col min="8" max="8" width="8.85546875" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" customWidth="true"/>
+    <col min="10" max="10" width="16.5703125" customWidth="true"/>
+    <col min="11" max="11" width="16" customWidth="true"/>
+    <col min="12" max="12" width="17.85546875" customWidth="true"/>
+    <col min="13" max="13" width="17.5703125" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0.59580075368380636</v>
-      </c>
-      <c r="B2">
-        <v>2.0536411267403629</v>
-      </c>
-      <c r="C2">
-        <v>0.14396275470670283</v>
-      </c>
-      <c r="D2">
-        <v>5.1635256035414592E-2</v>
-      </c>
-      <c r="E2">
-        <v>0.69925885671277976</v>
-      </c>
-      <c r="F2">
-        <v>0.51233427804723686</v>
-      </c>
-      <c r="G2">
-        <v>52</v>
-      </c>
-      <c r="H2">
-        <v>82</v>
-      </c>
-      <c r="I2">
-        <v>0.82274793797334911</v>
-      </c>
-      <c r="J2">
-        <v>1.9729253396761237E-2</v>
-      </c>
-      <c r="K2">
-        <v>0.3526923515288713</v>
-      </c>
-      <c r="L2">
-        <v>0.35466031141949417</v>
-      </c>
-      <c r="M2">
-        <v>-0.72110376667973053</v>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
+        <v>0.63867721557144308</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1.9416657838641791</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.0031596877710231564</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.067205378687909836</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.68802191628728926</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.13848281731183243</v>
+      </c>
+      <c r="G2" s="0">
+        <v>49.600000000000001</v>
+      </c>
+      <c r="H2" s="0">
+        <v>2</v>
+      </c>
+      <c r="I2" s="0">
+        <v>1.181359437926748</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0.096194337846943451</v>
+      </c>
+      <c r="K2" s="0">
+        <v>0.48580736052526474</v>
+      </c>
+      <c r="L2" s="0">
+        <v>-0.24572604525856168</v>
+      </c>
+      <c r="M2" s="0">
+        <v>-0.95165831459267314</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.56178793934858784</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2.1383016272951534</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.0017549989067366933</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.48566544174909315</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.6874499523968628</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.13848281731183243</v>
+      </c>
+      <c r="G3" s="0">
+        <v>49.600000000000001</v>
+      </c>
+      <c r="H3" s="0">
+        <v>4</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.81288935844146215</v>
+      </c>
+      <c r="J3" s="0">
+        <v>-0.055605437034776356</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.27628327593547214</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.11330974531366156</v>
+      </c>
+      <c r="M3" s="0">
+        <v>-0.95246903675981165</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.56154735255209332</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2.1388885309813892</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.011132807693144287</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.48566544174909315</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.6874499523968628</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.13848281731183243</v>
+      </c>
+      <c r="G4" s="0">
+        <v>49.600000000000001</v>
+      </c>
+      <c r="H4" s="0">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0.81288935844146215</v>
+      </c>
+      <c r="J4" s="0">
+        <v>-0.04641284912580082</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0.2857649451163331</v>
+      </c>
+      <c r="L4" s="0">
+        <v>0.12051995808458571</v>
+      </c>
+      <c r="M4" s="0">
+        <v>-0.94461671108638257</v>
       </c>
     </row>
   </sheetData>
